--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -675,6 +675,50 @@
     <t>Windows</t>
   </si>
   <si>
+    <t>MMS: Inventory: selecting the previous month in the(First Click) Calendar is displaying the current month dates also.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Inventory&gt;Calendar.
+2. Click on "the Previous month"(First click).
+Actual: The previous month data with current month date also included.
+Expected: The data should display only for the previous month.
+Note: Please check for Dash board ,Inventory mediawise,Occupancy timeline ,overview and both the heat maps.  . </t>
+  </si>
+  <si>
+    <t>MMS: Inventory:Non location based place media are not displayed.</t>
+  </si>
+  <si>
+    <t>MMS:Inventory&gt;Reports&gt;vacancy list:
+The size of the medias not correctly defined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Inventory&gt;Reports&gt; Occupancy Overview .
+2.Enter  the place media with valid city and media type. 
+3. Click on go.
+4. select calendar as today(verify the medias in the table).
+5. Select Calendar as last 7days 
+Actual: In last 7 days shown the "current date" date and when selecting date as "Today" the data wont display.
+Expected: Selecting on the calendar for right data , it should display a correct data in the table.
+</t>
+  </si>
+  <si>
+    <t>MMS:Inventory&gt;Reports:Occupancy overview:
+Data is not displayed for the selecting date as today in the calendar.</t>
+  </si>
+  <si>
+    <t>MMS:Inventory&gt;Reports:Occupancy overview:
+Medias count as shown not displayed correctly .</t>
+  </si>
+  <si>
+    <t>1. Go to Inventory&gt;Reports&gt; Occupancy Overview .
+2.Enter  the place media with valid city and media type. 
+3. Click on go.
+Actual: Displaying a message as "Showing 15 Medias"
+but actually displays 5 medias
+Expected: all the medias should display for selected citywide.
+Note: Here we are not showing the medias , we are showing city wise medias. , so please change the "showing medias " instead "showing cities"</t>
+  </si>
+  <si>
     <t>1. Go to medias.
 2. Select a media.
 3. Click on calendar Icon.
@@ -682,34 +726,26 @@
 5. Go to search page(2nd Screen).
 6. Enter the details in search filter.
 7. Click on go .
-8. Select amedia.
+8. Select a media.
 9. click on full details button.
-Actaual: The availability calendar "prograss bar holder" is overlapped.
-Expected: The availability calendar shoud display as calendar modified (above step 4).
-Note: This defect is occuring for rare medias. so please refer for this media Id:12242</t>
-  </si>
-  <si>
-    <t>MMS: Inventory: selecting the previous month in the(First Click) Calendar is displaying the current month dates also.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to Inventory&gt;Calendar.
-2. Click on "the Previous month"(First click).
-Actual: The previous month data with current month date also included.
-Expected: The data should display only for the previous month.
-Note: Please check for Dash board ,Inventory mediawise,Occupancy timeline ,overview and both the heat maps.  . </t>
-  </si>
-  <si>
-    <t>1. Go to Inventory&gt;Inventory mediawise or Vacancy list or Occupancy time line .
+Actual: The availability calendar "progress bar holder" is overlapped.
+Expected: The availability calendar should display as calendar modified (above step 4).
+Note: This defect is occurring for rare medias. so please refer for this media Id:12242</t>
+  </si>
+  <si>
+    <t>1. Go to Inventory&gt;Inventory media wise or Vacancy list or Occupancy time line .
 2.Select place media.
 3. Click on go.
 Actual: Non location based place medias are not displaying.
 Expected: Location based and no location based both the medias should display.</t>
   </si>
   <si>
-    <t>MMS: Inventory:Non location based place media are not displayed.</t>
-  </si>
-  <si>
-    <t>MMS:Inventory&gt;</t>
+    <t>1. Go to Inventory&gt;Reports&gt; Vacancy list .
+2.Enter  all the valid details in Search Filter .
+3. Click on go.
+Actual: In the data table media Size is shown as undefined 
+Expected: The media size should be shown in the data table with Inches or Sq.ft.
+Note: Please check the Inventory media wise for Size is not shown in Inches OR Sq.ft</t>
   </si>
 </sst>
 </file>
@@ -2481,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L7"/>
+  <dimension ref="A3:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2551,7 +2587,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>138</v>
@@ -2568,10 +2604,10 @@
         <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>138</v>
@@ -2588,16 +2624,16 @@
         <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="189">
       <c r="C7" s="4">
         <v>42096</v>
       </c>
@@ -2605,7 +2641,38 @@
         <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="236.25">
+      <c r="C8" s="4">
+        <v>42096</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="220.5">
+      <c r="C9" s="4">
+        <v>42096</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -18,8 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>designe102</author>
+  </authors>
+  <commentList>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>designe102:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PUT IT ON STAY</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="156">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -747,6 +781,41 @@
 Expected: The media size should be shown in the data table with Inches or Sq.ft.
 Note: Please check the Inventory media wise for Size is not shown in Inches OR Sq.ft</t>
   </si>
+  <si>
+    <t xml:space="preserve">MMS:Inventory&gt;Reports&gt;vacancy list or Inventory mediawise or Vacancy list :
+The size(dimension) of the medias are not defined correctly.
+</t>
+  </si>
+  <si>
+    <t>MMS:Inventory: Occupancy Overview:the data in the  "occupancy Overview Time Line GraphId" is hiding</t>
+  </si>
+  <si>
+    <t>1. Go to Inventory&gt;Reports&gt;vacancy list:
+2.Enter  all the valid details in Search Filter(street/place) .
+3. Click on go.
+Actual: the dimensions of the media size is not displayed correctly.
+Expected: the dimensions of the media size should display as "Inches" OR "Sq.ft" 
+Note: The same defect is observed in the "Inventory mediawise /Vacancy list "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Inventory &gt;Reports&gt;Occupancy overview:
+2. Click on "inbxSprit minimizer"(left Nav).
+Actual: The data shown now in the "occupancy Overview Time Line GraphId" 
+Expected : The data should display corrctly in "occupancy Overview Time Line GraphId" as well as when clicking on
+</t>
+  </si>
+  <si>
+    <t>MMS:Inventory: Occupancy Overview:The message displayed in the header "Showing___Medias" is in correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Inventory &gt;Reports&gt;Occupancy overview:
+2. Select Places media and mediatype in the search filter.
+3. Click on Go .
+Actual: The message is displayed in the header  "Showing__Medias" 
+Expected:The message should be display in the "Showing_Places".
+Note: Check for Street media and message should display as "Showing_Cities"
+</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +894,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1221,9 +1303,9 @@
   <dimension ref="A7:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2517,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L9"/>
+  <dimension ref="A3:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2646,6 +2728,9 @@
       <c r="H7" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="236.25">
       <c r="C8" s="4">
@@ -2660,6 +2745,9 @@
       <c r="H8" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="220.5">
       <c r="C9" s="4">
@@ -2674,10 +2762,73 @@
       <c r="H9" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="204.75">
+      <c r="C10" s="4">
+        <v>42101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="157.5">
+      <c r="C11" s="4">
+        <v>42101</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="236.25">
+      <c r="C12" s="4">
+        <v>42101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="4">
+        <v>42101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="162">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -782,12 +782,29 @@
 Note: Please check the Inventory media wise for Size is not shown in Inches OR Sq.ft</t>
   </si>
   <si>
-    <t xml:space="preserve">MMS:Inventory&gt;Reports&gt;vacancy list or Inventory mediawise or Vacancy list :
+    <t xml:space="preserve">MMS:Proposals&gt;Active Proposal&gt;List(proposal Id)&gt;add street/place&gt;Media Explorer popup
+Clicking on Snapooh Id is redirecting to proposal list page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMS:Proposals&gt;Active Proposal&gt;List(proposal Id)&gt;add place&gt;Media Explorer popup
+The Non Location Based Medias are Not displayed in the Media Explorer Popup.
+</t>
+  </si>
+  <si>
+    <t>1.Go to Proposal&gt;Active Proposal:
+2. Select Proposal Id
+3. Click on add street/place.
+4.  Enter media Id in the Search field .
+Click on go.
+5. Click on Snapooh ID.
+Actual: It is redirecting to the Proposal list page.
+Expected : Media detail page should display for selected media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMS:Inventory&gt;Reports&gt;vacancy list or Inventory media wise or Vacancy list :
 The size(dimension) of the medias are not defined correctly.
 </t>
-  </si>
-  <si>
-    <t>MMS:Inventory: Occupancy Overview:the data in the  "occupancy Overview Time Line GraphId" is hiding</t>
   </si>
   <si>
     <t>1. Go to Inventory&gt;Reports&gt;vacancy list:
@@ -795,26 +812,53 @@
 3. Click on go.
 Actual: the dimensions of the media size is not displayed correctly.
 Expected: the dimensions of the media size should display as "Inches" OR "Sq.ft" 
-Note: The same defect is observed in the "Inventory mediawise /Vacancy list "</t>
+Note: The same defect is observed in the "Inventory media wise /Vacancy list "</t>
+  </si>
+  <si>
+    <t>MMS:Inventory: Occupancy Overview: the data in the  "occupancy Overview Time Line GraphId" is hiding</t>
   </si>
   <si>
     <t xml:space="preserve">1. Go to Inventory &gt;Reports&gt;Occupancy overview:
 2. Click on "inbxSprit minimizer"(left Nav).
 Actual: The data shown now in the "occupancy Overview Time Line GraphId" 
-Expected : The data should display corrctly in "occupancy Overview Time Line GraphId" as well as when clicking on
+Expected : The data should display correctly in "occupancy Overview Time Line GraphId" as well as when clicking on
 </t>
   </si>
   <si>
-    <t>MMS:Inventory: Occupancy Overview:The message displayed in the header "Showing___Medias" is in correct.</t>
+    <t>MMS:Inventory: Occupancy Overview: The message displayed in the header "Showing___Medias" is in correct.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Go to Inventory &gt;Reports&gt;Occupancy overview:
-2. Select Places media and mediatype in the search filter.
+2. Select Places media and media type in the search filter.
 3. Click on Go .
 Actual: The message is displayed in the header  "Showing__Medias" 
-Expected:The message should be display in the "Showing_Places".
+Expected: The message should be display in the "Showing_Places".
 Note: Check for Street media and message should display as "Showing_Cities"
 </t>
+  </si>
+  <si>
+    <t>MMS:Proposals&gt;Active Proposal:
+Converting to the campaign is not working(If all the medias all are available) for Create New Campaign.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Proposals&gt;Active Proposals.
+2. Select  any proposal.
+2. Select actions.
+3. Select "Convert to campaign".
+5. Click on Create New button.
+6. Click on Convert
+Actual: Displays a alert message of "Conflict"  'This proposal has medias which are conflicting with the period, you should first rectify the conflicts before converting it into a proposal'.
+Expected : It should be allow to convert proposal to campaign.
+Note: The Proposal converting to campaign in the "Use Existing "
+</t>
+  </si>
+  <si>
+    <t>1.Go to Proposal&gt;Active Proposal:
+2. Select Proposal Id
+3. Click on add place.
+4. Enter the all fields and click on go.
+Actual: Non location based medias are not displayed in the Media Explorer popup.
+Expected: Both Location and Non Location Based medias should display in the media Explorer popup.</t>
   </si>
 </sst>
 </file>
@@ -2599,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L13"/>
+  <dimension ref="A3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2774,10 +2818,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>82</v>
@@ -2791,10 +2835,10 @@
         <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>73</v>
@@ -2808,20 +2852,62 @@
         <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="283.5">
       <c r="C13" s="4">
-        <v>42101</v>
+        <v>42103</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="157.5">
+      <c r="C14" s="4">
+        <v>42103</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="157.5">
+      <c r="C15" s="4">
+        <v>42103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="4">
+        <v>42110</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="APRIL-MONTH" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MMS_V2.03" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$L$49</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -859,6 +859,77 @@
 4. Enter the all fields and click on go.
 Actual: Non location based medias are not displayed in the Media Explorer popup.
 Expected: Both Location and Non Location Based medias should display in the media Explorer popup.</t>
+  </si>
+  <si>
+    <t>Login: Verification of the mail is not working</t>
+  </si>
+  <si>
+    <t>Media Manager: Search filter is not working.</t>
+  </si>
+  <si>
+    <t>Proposal: same media in the different proposals are converted to a campaign.</t>
+  </si>
+  <si>
+    <t>Proposal: "Converting proposal into campaign" in using Existing campaign chosen campaign is not selected.</t>
+  </si>
+  <si>
+    <t>Monitor View&gt;Reports&gt;Pending for Monitor:
+The last days field is accepting for the "Zero" and "Negative ' values</t>
+  </si>
+  <si>
+    <t>Inventory and Monitor View: Whenever Selecting the place media " No floor available" Message is displayed</t>
+  </si>
+  <si>
+    <t>1. Signup and login with the valid UN and PWD.
+2. Click on verify the email link.
+3. Check the mail link and click on verify.
+Actual: The  empty screen of is displayed.
+Expected: The page is redirect to Snapooh site and say your mail verified.</t>
+  </si>
+  <si>
+    <t>1. go to Medias.
+2. Select any city in "City" drop down..
+3. Select area.
+4. Click on go.
+Actual: All the medias are displayed with the default city.
+Expected: Only selected cities medias should display.</t>
+  </si>
+  <si>
+    <t>1. Go to proposal&gt;active proposal.
+2. Enter Create a Two different proposals  with same name and same date.
+3. add a same media to the both proposals.
+4. Convert the one proposal to campaign.
+5. Convert another proposal to the campaign.
+Actual: The second proposal also converted to the campaign.
+Expected: When converting a 2nd proposal should show a conflict msg.</t>
+  </si>
+  <si>
+    <t>1. Go to Proposal&gt;Active proposal:
+2. Select any proposal with having a medias.
+3. Select " converting to campaign " in actions dropdown .
+4. Select "Use Existing"  .
+5. Select any one Existing campaign and Click on Convert.
+6. go to closed won &gt; Converted Campaign&gt; associated campaign.
+Actual: The associated campaign with the closed won does not matches.
+Converting proposal into campaign.
+Expected: Selected associated campaign only should display.</t>
+  </si>
+  <si>
+    <t>1. Go to Monitor View&gt;Reports&gt;Pending for Monitor:
+2. Enter a "Zero" or "Negative (-4)' in days field.
+3. Click on Go.
+Actual : The Message is displayed with the entered Zero and Negative date Value.
+Expected: The data should not display for the above conditions.</t>
+  </si>
+  <si>
+    <t>1. Go to Monitorview&gt; Reports:
+2. Select MediaWise.
+3. Select place media In place drop down .
+Actual :" No floor available" Message is displayed.
+Expected: Whenever selecting a place media the message should not display.
+Note: Please check
+Monitor View: Mediawise, DateWise,Pending for monitor,monitor overview.
+Inventory:Occupancy Media Wise, Vacancy Overview,Vacancy List, Occupancy Time Line,Occupancy Overview.</t>
   </si>
 </sst>
 </file>
@@ -2645,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2920,12 +2991,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="157.5">
+      <c r="B4" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="157.5">
+      <c r="B5" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="236.25">
+      <c r="B6" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="252">
+      <c r="B7" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="189">
+      <c r="B8" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="315">
+      <c r="B9" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="4">
+        <v>42125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>designe102:</t>
         </r>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PUT IT ON STAY</t>
@@ -861,23 +861,10 @@
 Expected: Both Location and Non Location Based medias should display in the media Explorer popup.</t>
   </si>
   <si>
-    <t>Login: Verification of the mail is not working</t>
-  </si>
-  <si>
-    <t>Media Manager: Search filter is not working.</t>
-  </si>
-  <si>
     <t>Proposal: same media in the different proposals are converted to a campaign.</t>
   </si>
   <si>
     <t>Proposal: "Converting proposal into campaign" in using Existing campaign chosen campaign is not selected.</t>
-  </si>
-  <si>
-    <t>Monitor View&gt;Reports&gt;Pending for Monitor:
-The last days field is accepting for the "Zero" and "Negative ' values</t>
-  </si>
-  <si>
-    <t>Inventory and Monitor View: Whenever Selecting the place media " No floor available" Message is displayed</t>
   </si>
   <si>
     <t>1. Signup and login with the valid UN and PWD.
@@ -902,17 +889,6 @@
 5. Convert another proposal to the campaign.
 Actual: The second proposal also converted to the campaign.
 Expected: When converting a 2nd proposal should show a conflict msg.</t>
-  </si>
-  <si>
-    <t>1. Go to Proposal&gt;Active proposal:
-2. Select any proposal with having a medias.
-3. Select " converting to campaign " in actions dropdown .
-4. Select "Use Existing"  .
-5. Select any one Existing campaign and Click on Convert.
-6. go to closed won &gt; Converted Campaign&gt; associated campaign.
-Actual: The associated campaign with the closed won does not matches.
-Converting proposal into campaign.
-Expected: Selected associated campaign only should display.</t>
   </si>
   <si>
     <t>1. Go to Monitor View&gt;Reports&gt;Pending for Monitor:
@@ -931,15 +907,61 @@
 Monitor View: Mediawise, DateWise,Pending for monitor,monitor overview.
 Inventory:Occupancy Media Wise, Vacancy Overview,Vacancy List, Occupancy Time Line,Occupancy Overview.</t>
   </si>
+  <si>
+    <t>MMS: Login: Verification of the mail is not working</t>
+  </si>
+  <si>
+    <t>MMS: Media Manager: Search filter is not working.</t>
+  </si>
+  <si>
+    <t>MMS: Pending for Monitor:
+The last days field is accepting for the "Zero" and "Negative ' values</t>
+  </si>
+  <si>
+    <t>MMS: Inventory and Monitor View: Whenever Selecting the place media " No floor available" Message is displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Go to Proposal&gt;Active proposal:
+2. Select any proposal with having a medias.
+3. Select " converting to campaign " in actions dropdown .
+4. Select "Use Existing"  .
+5. Select any one Existing campaign and Click on Convert.
+6. go to closed won &gt;click on converted ID&gt; view associate campaign </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Converted Campaign&gt; associated campaign.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Actual: The associated campaign with the closed won does not matches.
+Converting proposal into campaign.
+Expected: Selected associated campaign only should display.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,14 +1037,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1084,7 +1113,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,6 +1141,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="2"/>
@@ -1204,6 +1236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1238,6 +1271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1413,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A7:L57"/>
   <sheetViews>
@@ -1423,7 +1457,7 @@
       <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
@@ -1439,7 +1473,7 @@
     <col min="12" max="12" width="16.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="47.25" hidden="1">
+    <row r="8" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78.75" hidden="1">
+    <row r="9" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1544,7 +1578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="63" hidden="1">
+    <row r="10" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1579,7 +1613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5" hidden="1">
+    <row r="11" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1611,7 +1645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1643,7 +1677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" hidden="1">
+    <row r="13" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1672,7 +1706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1680,7 +1714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="31.5" hidden="1">
+    <row r="15" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1712,7 +1746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.5" hidden="1">
+    <row r="16" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1741,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31.5" hidden="1">
+    <row r="17" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -1770,7 +1804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31.5" hidden="1">
+    <row r="18" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1796,7 +1830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="47.25" hidden="1">
+    <row r="19" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1828,7 +1862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="47.25" hidden="1">
+    <row r="20" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -1863,7 +1897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="189" hidden="1">
+    <row r="21" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="236.25" hidden="1">
+    <row r="22" spans="1:12" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -1933,7 +1967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="252" hidden="1">
+    <row r="23" spans="1:12" ht="252" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1968,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="267.75" hidden="1">
+    <row r="24" spans="1:12" ht="267.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2003,7 +2037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="110.25" hidden="1">
+    <row r="25" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2038,7 +2072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="141.75" hidden="1">
+    <row r="26" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2073,7 +2107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="141.75" hidden="1">
+    <row r="27" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2108,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="141.75" hidden="1">
+    <row r="28" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="110.25" hidden="1">
+    <row r="29" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="157.5" hidden="1">
+    <row r="30" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -2213,7 +2247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="157.5" hidden="1">
+    <row r="31" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2248,7 +2282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="204.75" hidden="1">
+    <row r="32" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2283,7 +2317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="157.5" hidden="1">
+    <row r="33" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2306,7 +2340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="157.5" hidden="1">
+    <row r="34" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2329,7 +2363,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="315" hidden="1">
+    <row r="35" spans="1:10" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2352,7 +2386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="346.5" hidden="1">
+    <row r="36" spans="1:10" ht="346.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2375,7 +2409,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="236.25" hidden="1">
+    <row r="37" spans="1:10" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2395,7 +2429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63" hidden="1">
+    <row r="38" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>42079</v>
       </c>
@@ -2403,7 +2437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="157.5" hidden="1">
+    <row r="39" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5">
         <v>42079</v>
       </c>
@@ -2420,7 +2454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="189" hidden="1">
+    <row r="40" spans="1:10" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>42079</v>
       </c>
@@ -2437,7 +2471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="174" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="174" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5">
         <v>42079</v>
       </c>
@@ -2451,7 +2485,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="110.25" hidden="1">
+    <row r="42" spans="1:10" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5">
         <v>42079</v>
       </c>
@@ -2468,7 +2502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="141.75" hidden="1">
+    <row r="43" spans="1:10" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5">
         <v>42079</v>
       </c>
@@ -2485,7 +2519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="126">
+    <row r="44" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
         <v>42080</v>
       </c>
@@ -2502,7 +2536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="220.5">
+    <row r="45" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="C45" s="5">
         <v>42080</v>
       </c>
@@ -2519,7 +2553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="267.75">
+    <row r="46" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
         <v>42080</v>
       </c>
@@ -2536,7 +2570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="267.75">
+    <row r="47" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
         <v>42080</v>
       </c>
@@ -2553,7 +2587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="173.25">
+    <row r="48" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="C48" s="5">
         <v>42080</v>
       </c>
@@ -2570,7 +2604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="189">
+    <row r="49" spans="3:10" ht="189" x14ac:dyDescent="0.25">
       <c r="C49" s="5">
         <v>42080</v>
       </c>
@@ -2587,7 +2621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="299.25">
+    <row r="50" spans="3:10" ht="299.25" x14ac:dyDescent="0.25">
       <c r="C50" s="5">
         <v>42086</v>
       </c>
@@ -2601,7 +2635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="236.25">
+    <row r="51" spans="3:10" ht="236.25" x14ac:dyDescent="0.25">
       <c r="C51" s="5">
         <v>42087</v>
       </c>
@@ -2615,7 +2649,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="157.5">
+    <row r="52" spans="3:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="C52" s="5">
         <v>42087</v>
       </c>
@@ -2629,7 +2663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="409.5">
+    <row r="53" spans="3:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C53" s="5">
         <v>42087</v>
       </c>
@@ -2643,7 +2677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="173.25">
+    <row r="54" spans="3:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="C54" s="5">
         <v>42087</v>
       </c>
@@ -2657,7 +2691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="189">
+    <row r="55" spans="3:10" ht="189" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>42094</v>
       </c>
@@ -2671,7 +2705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="315">
+    <row r="56" spans="3:10" ht="315" x14ac:dyDescent="0.25">
       <c r="C56" s="4">
         <v>42094</v>
       </c>
@@ -2685,7 +2719,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="283.5">
+    <row r="57" spans="3:10" ht="283.5" x14ac:dyDescent="0.25">
       <c r="C57" s="4">
         <v>42094</v>
       </c>
@@ -2713,14 +2747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -2735,7 +2769,7 @@
     <col min="11" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="283.5">
+    <row r="4" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>42096</v>
       </c>
@@ -2793,7 +2827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="189">
+    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>42096</v>
       </c>
@@ -2813,7 +2847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="157.5">
+    <row r="6" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>42096</v>
       </c>
@@ -2830,7 +2864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="189">
+    <row r="7" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>42096</v>
       </c>
@@ -2847,7 +2881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="236.25">
+    <row r="8" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>42096</v>
       </c>
@@ -2864,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="220.5">
+    <row r="9" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>42096</v>
       </c>
@@ -2881,7 +2915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="204.75">
+    <row r="10" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>42101</v>
       </c>
@@ -2898,7 +2932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="157.5">
+    <row r="11" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>42101</v>
       </c>
@@ -2915,7 +2949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="236.25">
+    <row r="12" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>42101</v>
       </c>
@@ -2932,7 +2966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="283.5">
+    <row r="13" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>42103</v>
       </c>
@@ -2946,7 +2980,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="157.5">
+    <row r="14" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>42103</v>
       </c>
@@ -2960,7 +2994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="157.5">
+    <row r="15" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>42103</v>
       </c>
@@ -2974,7 +3008,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>42110</v>
       </c>
@@ -2990,14 +3024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
@@ -3006,7 +3040,7 @@
     <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="157.5">
+    <row r="4" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>42125</v>
       </c>
@@ -3031,13 +3065,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="157.5">
+        <v>169</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>42125</v>
       </c>
@@ -3045,13 +3079,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="236.25">
+        <v>170</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>42125</v>
       </c>
@@ -3059,13 +3093,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="252">
+        <v>162</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="267.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>42125</v>
       </c>
@@ -3073,13 +3107,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="189">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>42125</v>
       </c>
@@ -3087,13 +3121,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="315">
+        <v>171</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>42125</v>
       </c>
@@ -3101,13 +3135,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>42125</v>
       </c>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -953,15 +953,63 @@
 Expected: Selected associated campaign only should display.</t>
     </r>
   </si>
+  <si>
+    <t>MMS:Monitor-View&gt;Inbox:Unlink is not working in the Inbox</t>
+  </si>
+  <si>
+    <t>1. Go to Monitor-View&gt;Inbox:
+2. Select a monitor .
+3. Click on Unlink for a media.
+4. Click on Image of the Monitor.
+Actual: The media shows still  is linked.
+Expected: The media should be unlink when unlinked in the Inbox</t>
+  </si>
+  <si>
+    <t>MMS:Medias&gt;Placemedia&gt;PMM&gt;add a media:
+The media is not adding to the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Medias&gt;Placemedia&gt;PMM
+2. Select add a media.
+3. Select and floor and media type and continue.
+4. Enter the all valid data.
+5. Click on add media.
+Actual: The media is not added to the media list.
+Expected: The Media should be added to the media list(PMM).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMS:Monitor View&gt;Inbox&gt;Link now(media)&gt;Media Explorer popoup:Place drop down button is not working
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Monitor View&gt;Inbox&gt;Link now(media):
+2. Select any city in the city ddb in the media Explorer popup .
+3.Click on place ddb.
+Actual: Place ddb is not working.
+Expected: The place ddb should work.
+</t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox&gt;Link now(media)&gt;Media Explorer popoup:The Header of the popup is not displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Monitor View&gt;Inbox: 
+2. Select any media have different location.
+3. Click on link now(Media).
+Actual: The header of the popup is not displayed.
+Expected: The header also should be display correctly.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,7 +1284,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1271,7 +1318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,17 +1493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A7:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
@@ -1473,7 +1519,7 @@
     <col min="12" max="12" width="16.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="47.25" hidden="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1546,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="78.75" hidden="1">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1578,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="63" hidden="1">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1613,7 +1659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="31.5" hidden="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1645,7 +1691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1677,7 +1723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5" hidden="1">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1706,7 +1752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1714,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5" hidden="1">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1746,7 +1792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5" hidden="1">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1775,7 +1821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="31.5" hidden="1">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -1804,7 +1850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31.5" hidden="1">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1830,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="47.25" hidden="1">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1862,7 +1908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="47.25" hidden="1">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -1897,7 +1943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="189" hidden="1">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1932,7 +1978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="236.25" hidden="1">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -1967,7 +2013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="252" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="252" hidden="1">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2002,7 +2048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="267.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="267.75" hidden="1">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2037,7 +2083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="110.25" hidden="1">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2072,7 +2118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="141.75" hidden="1">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2107,7 +2153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="141.75" hidden="1">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2142,7 +2188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="141.75" hidden="1">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2177,7 +2223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="110.25" hidden="1">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2212,7 +2258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="157.5" hidden="1">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -2247,7 +2293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="157.5" hidden="1">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2282,7 +2328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="204.75" hidden="1">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2317,7 +2363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="157.5" hidden="1">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2340,7 +2386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="157.5" hidden="1">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2363,7 +2409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="315" hidden="1">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2386,7 +2432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="346.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="346.5" hidden="1">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2409,7 +2455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="236.25" hidden="1">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2429,7 +2475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="63" hidden="1">
       <c r="C38" s="5">
         <v>42079</v>
       </c>
@@ -2437,7 +2483,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="157.5" hidden="1">
       <c r="C39" s="5">
         <v>42079</v>
       </c>
@@ -2454,7 +2500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="189" hidden="1">
       <c r="C40" s="5">
         <v>42079</v>
       </c>
@@ -2471,7 +2517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="174" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="174" hidden="1" customHeight="1">
       <c r="C41" s="5">
         <v>42079</v>
       </c>
@@ -2485,7 +2531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="110.25" hidden="1">
       <c r="C42" s="5">
         <v>42079</v>
       </c>
@@ -2502,7 +2548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="141.75" hidden="1">
       <c r="C43" s="5">
         <v>42079</v>
       </c>
@@ -2519,7 +2565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="126">
       <c r="C44" s="5">
         <v>42080</v>
       </c>
@@ -2536,7 +2582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="220.5">
       <c r="C45" s="5">
         <v>42080</v>
       </c>
@@ -2553,7 +2599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="267.75">
       <c r="C46" s="5">
         <v>42080</v>
       </c>
@@ -2570,7 +2616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="267.75">
       <c r="C47" s="5">
         <v>42080</v>
       </c>
@@ -2587,7 +2633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="173.25">
       <c r="C48" s="5">
         <v>42080</v>
       </c>
@@ -2604,7 +2650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="189" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:10" ht="189">
       <c r="C49" s="5">
         <v>42080</v>
       </c>
@@ -2621,7 +2667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" ht="299.25">
       <c r="C50" s="5">
         <v>42086</v>
       </c>
@@ -2635,7 +2681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" ht="236.25">
       <c r="C51" s="5">
         <v>42087</v>
       </c>
@@ -2649,7 +2695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" ht="157.5">
       <c r="C52" s="5">
         <v>42087</v>
       </c>
@@ -2663,7 +2709,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:10" ht="409.5">
       <c r="C53" s="5">
         <v>42087</v>
       </c>
@@ -2677,7 +2723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" ht="173.25">
       <c r="C54" s="5">
         <v>42087</v>
       </c>
@@ -2691,7 +2737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="189" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" ht="189">
       <c r="C55" s="4">
         <v>42094</v>
       </c>
@@ -2705,7 +2751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="315" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:10" ht="315">
       <c r="C56" s="4">
         <v>42094</v>
       </c>
@@ -2719,7 +2765,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" ht="283.5">
       <c r="C57" s="4">
         <v>42094</v>
       </c>
@@ -2747,14 +2793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -2769,7 +2815,7 @@
     <col min="11" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="283.5">
       <c r="C4" s="4">
         <v>42096</v>
       </c>
@@ -2827,7 +2873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="189">
       <c r="C5" s="4">
         <v>42096</v>
       </c>
@@ -2847,7 +2893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="157.5">
       <c r="C6" s="4">
         <v>42096</v>
       </c>
@@ -2864,7 +2910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="189">
       <c r="C7" s="4">
         <v>42096</v>
       </c>
@@ -2881,7 +2927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="236.25">
       <c r="C8" s="4">
         <v>42096</v>
       </c>
@@ -2898,7 +2944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="220.5">
       <c r="C9" s="4">
         <v>42096</v>
       </c>
@@ -2915,7 +2961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="204.75">
       <c r="C10" s="4">
         <v>42101</v>
       </c>
@@ -2932,7 +2978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="157.5">
       <c r="C11" s="4">
         <v>42101</v>
       </c>
@@ -2949,7 +2995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="236.25">
       <c r="C12" s="4">
         <v>42101</v>
       </c>
@@ -2966,7 +3012,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="283.5">
       <c r="C13" s="4">
         <v>42103</v>
       </c>
@@ -2980,7 +3026,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="157.5">
       <c r="C14" s="4">
         <v>42103</v>
       </c>
@@ -2994,7 +3040,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="157.5">
       <c r="C15" s="4">
         <v>42103</v>
       </c>
@@ -3008,7 +3054,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16" s="4">
         <v>42110</v>
       </c>
@@ -3024,14 +3070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
@@ -3040,7 +3086,7 @@
     <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="157.5">
       <c r="B4" s="4">
         <v>42125</v>
       </c>
@@ -3071,7 +3117,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="157.5">
       <c r="B5" s="4">
         <v>42125</v>
       </c>
@@ -3085,7 +3131,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="236.25">
       <c r="B6" s="4">
         <v>42125</v>
       </c>
@@ -3099,7 +3145,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="267.75">
       <c r="B7" s="4">
         <v>42125</v>
       </c>
@@ -3113,7 +3159,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="189">
       <c r="B8" s="4">
         <v>42125</v>
       </c>
@@ -3127,7 +3173,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="315">
       <c r="B9" s="4">
         <v>42125</v>
       </c>
@@ -3141,12 +3187,60 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="141.75">
       <c r="B10" s="4">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="220.5">
+      <c r="B11" s="4">
+        <v>42129</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="173.25">
+      <c r="B12" s="4">
+        <v>42129</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="173.25">
+      <c r="B13" s="4">
+        <v>42129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="196">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -896,16 +896,6 @@
 3. Click on Go.
 Actual : The Message is displayed with the entered Zero and Negative date Value.
 Expected: The data should not display for the above conditions.</t>
-  </si>
-  <si>
-    <t>1. Go to Monitorview&gt; Reports:
-2. Select MediaWise.
-3. Select place media In place drop down .
-Actual :" No floor available" Message is displayed.
-Expected: Whenever selecting a place media the message should not display.
-Note: Please check
-Monitor View: Mediawise, DateWise,Pending for monitor,monitor overview.
-Inventory:Occupancy Media Wise, Vacancy Overview,Vacancy List, Occupancy Time Line,Occupancy Overview.</t>
   </si>
   <si>
     <t>MMS: Login: Verification of the mail is not working</t>
@@ -995,11 +985,107 @@
   </si>
   <si>
     <t xml:space="preserve">1. Go to Monitor View&gt;Inbox: 
-2. Select any media have different location.
+2. Select any media have different location or GPS disabled one.
 3. Click on link now(Media).
 Actual: The header of the popup is not displayed.
 Expected: The header also should be display correctly.
 </t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox&gt;Link now(media)&gt;Media Explorer popoup:Clicking on "Snapooh Id"  Link to the media popup is displayed.</t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox&gt;Link now(media)&gt;Media Explorer popoup:Clicking on photo view is not working in media explorer popup.</t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox:
+"Network problem try again" message is displayed</t>
+  </si>
+  <si>
+    <t>MMS:Campaign&gt;active Campaign&gt;actions&gt;delete:
+Network problem try again  message is displayed when deleting the campaign.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Monitor View&gt;Inbox
+2. Select a monitor and click on link now(Media).
+3. Select  a media and Snapooh ID in the media Explorer popup.
+4. Click on link now.
+Actual: Network problem try again message is displayed.
+Expected: The Selected Media is Expired so linking is not possible message should be display.
+Note: When expired media linking only the "Network problem try again" message is displayed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Campaign&gt;active Campaigns.
+2. select a campaign (Medias are empty)
+3. Select delete in actions drop down list
+4. click on delete.
+Actual: "Network problem, try again" message is displayed.
+Expected: After Confirming the delete, the Campaign should be deleted from the active campaign list.
+Note: after Refreshing the page the campaign is disappeared(deleted)  </t>
+  </si>
+  <si>
+    <t>1. Go to Monitor view&gt; Reports:
+2. Select Media Wise.
+3. Select place media In place drop down .
+Actual :" No floor available" Message is displayed.
+Expected: Whenever selecting a place media the message should not display.
+Note: Please check
+Monitor View: Media wise, DateWise,Pending for monitor,monitor overview.
+Inventory:Occupancy Media Wise, Vacancy Overview,Vacancy List, Occupancy Time Line,Occupancy Overview.</t>
+  </si>
+  <si>
+    <t>1. Go to monitor view&gt;Inbox:
+2. Select any monitor(Place or Street).
+3. Select link now(Media).
+4. Select any snapooh id in media Explorer popup.
+Actual : "link to the media " popup is displayed.
+Expected: It should display a media detail of selected snapooh Id</t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox&gt;Link now(media)&gt;Media Explorer popoup:Clicking on Availability in media Explorer popup both "Calendar ProgressbarHolder" and " Link to the media" popup is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to monitor view&gt;Inbox:
+2. Select any monitor(Place or Street).
+3. Select link now(Media).
+4. Click on Availability in the media Explorer popup.
+Actual : Both "Calendar ProgressbarHolder" and " Link to the media" popup is displayed
+Expected: It should display a  "Calendar ProgressbarHolder" only</t>
+  </si>
+  <si>
+    <t>1. Go to monitor view&gt;Inbox:
+2. Select any monitor(Street).
+3. Select link now(Media).
+4. Select photo view in media Explorer popup.
+5. Click on any monitor
+Actual : Not displayed a " Link to the media" popup
+Expected: It should display a " Link to the media" popup</t>
+  </si>
+  <si>
+    <t>MMS:Campaigns&gt;Active Campaigns&gt;Actions&gt;Edit duration: clicking on Calendar icon  a large Calendar progress bar is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to Campaigns.
+2. Select a campaign.
+3. Select edit duration in Actions drop down.
+4. Modify the duration and select apply.
+5. Select any media.
+6. Click on Calendar Icon.
+Actual: The Calendar Progress bar is displayed as the selected years long.
+Expected The Calendar should be scroll down.</t>
+  </si>
+  <si>
+    <t>MMS:Monitor view&gt;Inbox&gt;Link now :
+Loading message is not displayed.</t>
+  </si>
+  <si>
+    <t>1. Go to Monitor view&gt;Inbox:
+2. Select a monitor and click now.
+3. select the all valid data in the Media Explorer popup.
+4. Click on Go.
+Actual: The loading message is not displayed.
+Expected: The loading message is not displayed.</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1154,6 +1240,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1161,7 +1258,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,6 +1287,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3071,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E13"/>
+  <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3111,7 +3211,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>164</v>
@@ -3125,7 +3225,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>165</v>
@@ -3156,7 +3256,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="189">
@@ -3167,7 +3267,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>167</v>
@@ -3181,10 +3281,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="141.75">
@@ -3195,10 +3295,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="220.5">
@@ -3209,10 +3309,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="173.25">
@@ -3223,10 +3323,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="173.25">
@@ -3237,10 +3337,109 @@
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="173.25">
+      <c r="B14" s="4">
+        <v>42130</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>181</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="173.25">
+      <c r="B15" s="4">
+        <v>42130</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="189">
+      <c r="B16" s="4">
+        <v>42130</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="204.75">
+      <c r="B17" s="4">
+        <v>42130</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="283.5">
+      <c r="B18" s="4">
+        <v>42131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" ht="220.5">
+      <c r="B19" s="4">
+        <v>42131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="173.25">
+      <c r="B20" s="4">
+        <v>42131</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="APRIL-MONTH" sheetId="2" r:id="rId2"/>
     <sheet name="MMS_V2.03" sheetId="3" r:id="rId3"/>
+    <sheet name="JULY" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$L$49</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="196">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -3173,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3446,4 +3447,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3174,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3453,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="APRIL-MONTH" sheetId="2" r:id="rId2"/>
     <sheet name="MMS_V2.03" sheetId="3" r:id="rId3"/>
     <sheet name="JULY" sheetId="4" r:id="rId4"/>
+    <sheet name="SEPTEMBER" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$L$49</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="209">
   <si>
     <t>Defect ID:</t>
   </si>
@@ -1087,6 +1089,71 @@
 4. Click on Go.
 Actual: The loading message is not displayed.
 Expected: The loading message is not displayed.</t>
+  </si>
+  <si>
+    <t>Live Only:
+Proposal: Clicking on Search button in media explorer the same media appears multiple times</t>
+  </si>
+  <si>
+    <t>1. Go to Proposal&gt;Proposal Id&gt;add Media
+2. Select Search by Id/Alias
+3. Enter the monitor id and click on search button for multiple times.
+Actual: The searched media displays multiple times.
+Expected: The media should not display a multiple times.</t>
+  </si>
+  <si>
+    <t>Place Media Manager: Deactivated medias , media detail is not displayed.</t>
+  </si>
+  <si>
+    <t>1. Go to Medias&gt;Place media&gt;PMM&gt;PMM2:
+2. Select any media&gt;actions&gt;Deactivate.
+3. Click on Snapooh Id.
+Actual: Only Footer of the Page is displayed.
+Expected: The Media detail of the selected media should display</t>
+  </si>
+  <si>
+    <t>INDOOR MEDIA OPEN BUGS</t>
+  </si>
+  <si>
+    <t>Map View&gt;Floor View: Clicking a multiple times on the media opens a media detail popup muliple times.</t>
+  </si>
+  <si>
+    <t>1. Go to Search tab and Select Indoor media tab.
+2. Select city, area and Place type, Click on Search.
+3. Select any Mall and Click on that.
+4. Select any media.
+5. Click on 2 0r 3 times in the Selected media.
+Actual: The media detail pop opens a 3 times with attatched.
+Expected: The Media should open a pop only once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Deatail popup:The "full detail" button is over lapped in the images. </t>
+  </si>
+  <si>
+    <t>1. Go to Search tab and Select Indoor media tab.
+2. Select city, area and Place type, Click on Search.
+3. Select any Mall and Click on that.
+4. Select any media and click on it. 
+Actual: Observe that the "Full Details" button  is overlapped in the images.
+Expected: The "Full Details" option should be below the images should be there and Instead of images one by one Sliding should be available.</t>
+  </si>
+  <si>
+    <t>MMS:</t>
+  </si>
+  <si>
+    <t>MMS:Monitor View&gt;Inbox:Link Now(media): Traffic Umbrellas are not displaying(Invisible) in the media Explorer popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to monitor view&gt;Inbox.
+2. Select any monitor which area have the traffic umbrellas.
+3. Click on Link Now.
+Actual: The traffic umbreallas are not displayed and invisible in the explorer popup.
+Expected:  Clicking an link now which are media availble in the radius of the captured location should display.
+Note: The Media Icon is not visible but whenver mouse the 
+</t>
+  </si>
+  <si>
+    <t>MMS:Inventory&gt;Dashboard&gt;</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1326,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,6 +1359,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3174,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3451,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3483,6 +3554,141 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="150">
+      <c r="B3" s="13">
+        <v>42213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120">
+      <c r="B4" s="13">
+        <v>42213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="157.5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42247</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="141.75">
+      <c r="B4" s="4">
+        <v>42247</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5">
+      <c r="B5" s="4">
+        <v>42247</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="236.25">
+      <c r="B11" s="4">
+        <v>42257</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="4">
+        <v>42257</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
+++ b/MMS/Defect Report/DEFECT REPORT - MMS.xlsx
@@ -17,7 +17,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$L$49</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3591,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
